--- a/Classifier2/asklabels.xlsx
+++ b/Classifier2/asklabels.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="9315" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,11 +401,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
+      <selection activeCell="F617" sqref="F617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
